--- a/Plotting/0.8.0/MiningExpansion.xlsx
+++ b/Plotting/0.8.0/MiningExpansion.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD0626BE-06DA-4945-9799-5B007CB1BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BD292E-E56C-43C8-9819-6C7F71321587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="996" windowWidth="15228" windowHeight="11196"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="15228" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MiningExpansion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>PART.name</t>
   </si>
@@ -175,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,17 +1020,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -1056,7 +1068,7 @@
 }"</f>
         <v>@PART[SMX.PotatoHab]:AFTER[MiningExpansion] //
 {
-	@TechRequired = bases5
+	@TechRequired = bases11
 }</v>
       </c>
     </row>
@@ -1067,312 +1079,940 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+{
+	@TechRequired = "&amp;B3&amp;C3&amp;"
+}"</f>
+        <v>@PART[SMX.AsteroidPort]:AFTER[MiningExpansion] //
+{
+	@TechRequired = bases11
+}</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[SMX.Size0Generator]:AFTER[MiningExpansion] //
+{
+	@TechRequired = electrics7
+}</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[SMX.Size1Generator]:AFTER[MiningExpansion] //
+{
+	@TechRequired = electrics10
+}</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"@PART["&amp;A6&amp;"]:AFTER["&amp;D6&amp;"] //
+{
+	@TechRequired = "&amp;B6&amp;C6&amp;"
+}"</f>
+        <v>@PART[SMX.Mk2Generator]:AFTER[MiningExpansion] //
+{
+	@TechRequired = electrics11
+}</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"@PART["&amp;A7&amp;"]:AFTER["&amp;D7&amp;"] //
+{
+	@TechRequired = "&amp;B7&amp;C7&amp;"
+}"</f>
+        <v>@PART[SMX.Size2Generator]:AFTER[MiningExpansion] //
+{
+	@TechRequired = electrics11
+}</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"@PART["&amp;A8&amp;"]:AFTER["&amp;D8&amp;"] //
+{
+	@TechRequired = "&amp;B8&amp;C8&amp;"
+}"</f>
+        <v>@PART[SMX.Radialklaw]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru9
+}</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"@PART["&amp;A9&amp;"]:AFTER["&amp;D9&amp;"] //
+{
+	@TechRequired = "&amp;B9&amp;C9&amp;"
+}"</f>
+        <v>@PART[SMX.Size0ISRU]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru9
+}</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"@PART["&amp;A10&amp;"]:AFTER["&amp;D10&amp;"] //
+{
+	@TechRequired = "&amp;B10&amp;C10&amp;"
+}"</f>
+        <v>@PART[SME.MiniKlaw]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru9
+}</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"@PART["&amp;A11&amp;"]:AFTER["&amp;D11&amp;"] //
+{
+	@TechRequired = "&amp;B11&amp;C11&amp;"
+}"</f>
+        <v>@PART[SMX.Size0OreTank]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru9
+}</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"@PART["&amp;A12&amp;"]:AFTER["&amp;D12&amp;"] //
+{
+	@TechRequired = "&amp;B12&amp;C12&amp;"
+}"</f>
+        <v>@PART[SMX.0mStackDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru9
+}</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"@PART["&amp;A13&amp;"]:AFTER["&amp;D13&amp;"] //
+{
+	@TechRequired = "&amp;B13&amp;C13&amp;"
+}"</f>
+        <v>@PART[SMX.Mk2Oretank]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"@PART["&amp;A14&amp;"]:AFTER["&amp;D14&amp;"] //
+{
+	@TechRequired = "&amp;B14&amp;C14&amp;"
+}"</f>
+        <v>@PART[SMX.Mk2ISRURefinery]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"@PART["&amp;A15&amp;"]:AFTER["&amp;D15&amp;"] //
+{
+	@TechRequired = "&amp;B15&amp;C15&amp;"
+}"</f>
+        <v>@PART[SMX.Size1AtmCondenser]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"@PART["&amp;A16&amp;"]:AFTER["&amp;D16&amp;"] //
+{
+	@TechRequired = "&amp;B16&amp;C16&amp;"
+}"</f>
+        <v>@PART[SMX.Size0Driver]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="str">
+        <f>"@PART["&amp;A17&amp;"]:AFTER["&amp;D17&amp;"] //
+{
+	@TechRequired = "&amp;B17&amp;C17&amp;"
+}"</f>
+        <v>@PART[SMX.1mInlineDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"@PART["&amp;A18&amp;"]:AFTER["&amp;D18&amp;"] //
+{
+	@TechRequired = "&amp;B18&amp;C18&amp;"
+}"</f>
+        <v>@PART[SMX.1mHInlineDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"@PART["&amp;A19&amp;"]:AFTER["&amp;D19&amp;"] //
+{
+	@TechRequired = "&amp;B19&amp;C19&amp;"
+}"</f>
+        <v>@PART[SMX.1mInlinePump]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"@PART["&amp;A20&amp;"]:AFTER["&amp;D20&amp;"] //
+{
+	@TechRequired = "&amp;B20&amp;C20&amp;"
+}"</f>
+        <v>@PART[SMX.1mStackDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"@PART["&amp;A21&amp;"]:AFTER["&amp;D21&amp;"] //
+{
+	@TechRequired = "&amp;B21&amp;C21&amp;"
+}"</f>
+        <v>@PART[SMX.1mStackPump]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru10
+}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"@PART["&amp;A22&amp;"]:AFTER["&amp;D22&amp;"] //
+{
+	@TechRequired = "&amp;B22&amp;C22&amp;"
+}"</f>
+        <v>@PART[SMX.InlineDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="str">
+        <f>"@PART["&amp;A23&amp;"]:AFTER["&amp;D23&amp;"] //
+{
+	@TechRequired = "&amp;B23&amp;C23&amp;"
+}"</f>
+        <v>@PART[SMX.Mk3ISRURefinery]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"@PART["&amp;A24&amp;"]:AFTER["&amp;D24&amp;"] //
+{
+	@TechRequired = "&amp;B24&amp;C24&amp;"
+}"</f>
+        <v>@PART[SMX.Mk3OreTank]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="str">
+        <f>"@PART["&amp;A25&amp;"]:AFTER["&amp;D25&amp;"] //
+{
+	@TechRequired = "&amp;B25&amp;C25&amp;"
+}"</f>
+        <v>@PART[SMX.RCSDriver]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="str">
+        <f>"@PART["&amp;A26&amp;"]:AFTER["&amp;D26&amp;"] //
+{
+	@TechRequired = "&amp;B26&amp;C26&amp;"
+}"</f>
+        <v>@PART[SMX.Size2AtmCondenser]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="str">
+        <f>"@PART["&amp;A27&amp;"]:AFTER["&amp;D27&amp;"] //
+{
+	@TechRequired = "&amp;B27&amp;C27&amp;"
+}"</f>
+        <v>@PART[SMX.Size1Driver]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="str">
+        <f>"@PART["&amp;A28&amp;"]:AFTER["&amp;D28&amp;"] //
+{
+	@TechRequired = "&amp;B28&amp;C28&amp;"
+}"</f>
+        <v>@PART[SMX.2mStackDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="str">
+        <f>"@PART["&amp;A29&amp;"]:AFTER["&amp;D29&amp;"] //
+{
+	@TechRequired = "&amp;B29&amp;C29&amp;"
+}"</f>
+        <v>@PART[SMX.2mStackPump]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru11
+}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="str">
+        <f>"@PART["&amp;A30&amp;"]:AFTER["&amp;D30&amp;"] //
+{
+	@TechRequired = "&amp;B30&amp;C30&amp;"
+}"</f>
+        <v>@PART[SMX.Size3ISRU]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru12
+}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="str">
+        <f>"@PART["&amp;A31&amp;"]:AFTER["&amp;D31&amp;"] //
+{
+	@TechRequired = "&amp;B31&amp;C31&amp;"
+}"</f>
+        <v>@PART[SMX.Size3OreTank]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru12
+}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="str">
+        <f>"@PART["&amp;A32&amp;"]:AFTER["&amp;D32&amp;"] //
+{
+	@TechRequired = "&amp;B32&amp;C32&amp;"
+}"</f>
+        <v>@PART[SMX.3mStackDrill]:AFTER[MiningExpansion] //
+{
+	@TechRequired = isru12
+}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"@PART["&amp;A33&amp;"]:AFTER["&amp;D33&amp;"] //
+{
+	@TechRequired = "&amp;B33&amp;C33&amp;"
+}"</f>
+        <v>@PART[SMX.VLandingGear]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing8
+}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="str">
+        <f>"@PART["&amp;A34&amp;"]:AFTER["&amp;D34&amp;"] //
+{
+	@TechRequired = "&amp;B34&amp;C34&amp;"
+}"</f>
+        <v>@PART[SMX.VLandingGearL]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing9
+}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="str">
+        <f>"@PART["&amp;A35&amp;"]:AFTER["&amp;D35&amp;"] //
+{
+	@TechRequired = "&amp;B35&amp;C35&amp;"
+}"</f>
+        <v>@PART[SMX.ShroudedVLandingGear]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing9
+}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="str">
+        <f>"@PART["&amp;A36&amp;"]:AFTER["&amp;D36&amp;"] //
+{
+	@TechRequired = "&amp;B36&amp;C36&amp;"
+}"</f>
+        <v>@PART[SMX.ShroudedVLandingGearL]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing10
+}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="str">
+        <f>"@PART["&amp;A37&amp;"]:AFTER["&amp;D37&amp;"] //
+{
+	@TechRequired = "&amp;B37&amp;C37&amp;"
+}"</f>
+        <v>@PART[SMX.RadialPillarLeg]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing11
+}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="str">
+        <f>"@PART["&amp;A38&amp;"]:AFTER["&amp;D38&amp;"] //
+{
+	@TechRequired = "&amp;B38&amp;C38&amp;"
+}"</f>
+        <v>@PART[SMX.StackLeg]:AFTER[MiningExpansion] //
+{
+	@TechRequired = landing11
+}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="str">
+        <f>"@PART["&amp;A39&amp;"]:AFTER["&amp;D39&amp;"] //
+{
+	@TechRequired = "&amp;B39&amp;C39&amp;"
+}"</f>
+        <v>@PART[SMX.DeployableWheel]:AFTER[MiningExpansion] //
+{
+	@TechRequired = robotics8
+}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="str">
+        <f>"@PART["&amp;A40&amp;"]:AFTER["&amp;D40&amp;"] //
+{
+	@TechRequired = "&amp;B40&amp;C40&amp;"
+}"</f>
+        <v>@PART[SMX.PoddedDeployableWheelS]:AFTER[MiningExpansion] //
+{
+	@TechRequired = robotics9
+}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="str">
+        <f>"@PART["&amp;A41&amp;"]:AFTER["&amp;D41&amp;"] //
+{
+	@TechRequired = "&amp;B41&amp;C41&amp;"
+}"</f>
+        <v>@PART[SMX.PoddedDeployableWheelL]:AFTER[MiningExpansion] //
+{
+	@TechRequired = robotics10
+}</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="C2:C41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>